--- a/src/main/java/com/billhub/qa/testdata/invoice_verification_sheet.xlsx
+++ b/src/main/java/com/billhub/qa/testdata/invoice_verification_sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="349">
   <si>
     <t>Status</t>
   </si>
@@ -1041,6 +1041,30 @@
   </si>
   <si>
     <t>40020004</t>
+  </si>
+  <si>
+    <t>TESTINV45388</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>4500000888</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>A&amp;E</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1273,6 +1297,174 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -1702,46 +1894,46 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" s="61" t="s">
+      <c r="B2" s="109" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="115" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="M2" s="64" t="s">
-        <v>24</v>
+      <c r="I2" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="120" t="s">
+        <v>41</v>
       </c>
       <c r="N2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="121" t="s">
         <v>89</v>
       </c>
       <c r="P2" s="1">
@@ -1912,50 +2104,50 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="M2" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="N2" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="N2" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="108" t="s">
         <v>338</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/billhub/qa/testdata/invoice_verification_sheet.xlsx
+++ b/src/main/java/com/billhub/qa/testdata/invoice_verification_sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="341">
   <si>
     <t>Status</t>
   </si>
@@ -1117,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1291,6 +1291,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -1702,47 +1786,47 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="88" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="M2" s="64" t="s">
+      <c r="L2" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="92" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="O2" s="65" t="s">
-        <v>89</v>
+      <c r="O2" s="93" t="s">
+        <v>93</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -1912,49 +1996,49 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="K2" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="M2" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="P2" s="52" t="s">
+      <c r="O2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="80" t="s">
         <v>26</v>
       </c>
     </row>
